--- a/nlp/data/teams.xlsx
+++ b/nlp/data/teams.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steliomo/workspace/sports-chatbot/nlp/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376873D2-6ACB-EE4B-8BD8-B12A617F083B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3908A59-2B13-5946-BAE2-0DC00994DD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4300" yWindow="2700" windowWidth="27640" windowHeight="16940" xr2:uid="{29494926-C97D-D342-8849-47F9FFF514C6}"/>
   </bookViews>
@@ -100,9 +100,6 @@
     <t>Matz Sels</t>
   </si>
   <si>
-    <t>Brighton</t>
-  </si>
-  <si>
     <t>Danny Welbeck</t>
   </si>
   <si>
@@ -251,6 +248,9 @@
   </si>
   <si>
     <t>Paul Onuachu</t>
+  </si>
+  <si>
+    <t>Brighton and Hove Albion</t>
   </si>
 </sst>
 </file>
@@ -1114,13 +1114,14 @@
   <dimension ref="A1:E21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
   </cols>
@@ -1150,7 +1151,7 @@
         <v>84</v>
       </c>
       <c r="C2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
@@ -1167,7 +1168,7 @@
         <v>74</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
@@ -1184,7 +1185,7 @@
         <v>71</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -1201,7 +1202,7 @@
         <v>69</v>
       </c>
       <c r="C5" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D5" t="s">
         <v>15</v>
@@ -1218,7 +1219,7 @@
         <v>66</v>
       </c>
       <c r="C6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
         <v>18</v>
@@ -1235,7 +1236,7 @@
         <v>66</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -1252,7 +1253,7 @@
         <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D8" t="s">
         <v>24</v>
@@ -1263,223 +1264,223 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>76</v>
       </c>
       <c r="B9">
         <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9">
         <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>56</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
         <v>30</v>
-      </c>
-      <c r="E10" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B11">
         <v>56</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D11" t="s">
         <v>24</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>53</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" t="s">
         <v>37</v>
-      </c>
-      <c r="E13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14">
         <v>48</v>
       </c>
       <c r="C14" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
       </c>
       <c r="E14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B15">
         <v>43</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
         <v>42</v>
-      </c>
-      <c r="E15" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B16">
         <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D16">
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B17">
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D17" t="s">
         <v>15</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18">
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
         <v>50</v>
-      </c>
-      <c r="E18" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19">
         <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D19" t="s">
         <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>22</v>
       </c>
       <c r="C20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B21">
         <v>12</v>
       </c>
       <c r="C21" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
         <v>57</v>
-      </c>
-      <c r="E21" t="s">
-        <v>58</v>
       </c>
     </row>
   </sheetData>
